--- a/201720Assignment6_Sipley.xlsx
+++ b/201720Assignment6_Sipley.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="20860" windowHeight="15460" tabRatio="892" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="892"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="4" r:id="rId1"/>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1198">
   <si>
     <t>Create an interface  specification depicting the interaction between a test driver and the class specified above.  Create nominal scenario(s) and anomalous scenario(s) sufficient to convey your understanding of software behavior</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -4836,12 +4836,6 @@
     <t>{'op':'correct','error':'mandatory information is missing'}</t>
   </si>
   <si>
-    <t>{'op':'correct', 'long':'95.41.6', 'altitude':'13d42.4', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
-  </si>
-  <si>
-    <t>{'op':'correct', 'long':'95.41.6', 'altitude':'13d42.4', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'mandatory information is missing'}</t>
-  </si>
-  <si>
     <t>{'op':'correct','lat':'16d32.3', 'long':'95.41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
   </si>
   <si>
@@ -4911,9 +4905,6 @@
     <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'error':'mandatory information is missing'}</t>
   </si>
   <si>
-    <t>{'op':'correct', 'lat': '16d32.3', 'long':'-90d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'invalid long'}</t>
-  </si>
-  <si>
     <t>{'op':'correct','lat':'16d32.3', 'long':'95.41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'invalid long}</t>
   </si>
   <si>
@@ -4932,12 +4923,6 @@
     <t>{'op':'correct', 'lat': '16d32.3', 'long':'95.0d41.6', 'altitude':'13d42.3','assumedLong':'74d35.3','assumedLat':'-53d38.4', 'error':'invalid long'}</t>
   </si>
   <si>
-    <t>{'op':'correct', 'lat': '-90d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
-  </si>
-  <si>
-    <t>{'op':'correct', 'lat': '-90d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'invalid lat'}</t>
-  </si>
-  <si>
     <t>{'op':'correct', 'lat': '90d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
   </si>
   <si>
@@ -4950,12 +4935,6 @@
     <t>{'op':'correct', 'lat': '89d-32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'invalid lat'}</t>
   </si>
   <si>
-    <t>{'op':'correct', 'lat': '89d60.0', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
-  </si>
-  <si>
-    <t>{'op':'correct', 'lat': '89d60.0', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3','error':'invalid lat'}</t>
-  </si>
-  <si>
     <t>{'op':'correct', 'lat': '8960.0', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
   </si>
   <si>
@@ -5052,15 +5031,9 @@
     <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'7435.3'}</t>
   </si>
   <si>
-    <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'7435.3','error':'assumedLong'}</t>
-  </si>
-  <si>
     <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'-74d35.3'}</t>
   </si>
   <si>
-    <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'-74d35.3','error':'assumedLong'}</t>
-  </si>
-  <si>
     <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'360d35.3'}</t>
   </si>
   <si>
@@ -5124,12 +5097,6 @@
     <t>Sipley</t>
   </si>
   <si>
-    <t>corrected dist in</t>
-  </si>
-  <si>
-    <t>corrected direction in</t>
-  </si>
-  <si>
     <t>Predict number of components &amp; LOC &amp; effort (mins)</t>
   </si>
   <si>
@@ -5139,40 +5106,160 @@
     <t>calcLHA</t>
   </si>
   <si>
-    <t>come back to this</t>
-  </si>
-  <si>
-    <t>Values, convertAngtoDeg, convertDegtoAng</t>
-  </si>
-  <si>
-    <t>calcCorrectAlt</t>
-  </si>
-  <si>
-    <t>convertAngtoDeg, convertDegtoAng, Values</t>
-  </si>
-  <si>
-    <t>intermediateDistance, correctedAlt</t>
-  </si>
-  <si>
-    <t>calcCorrectedDist</t>
-  </si>
-  <si>
-    <t>Values, convertNaut, convertAngToDeg, convertDegToAng, calcCorrectAlt</t>
-  </si>
-  <si>
-    <t>calcDist, convertDist</t>
-  </si>
-  <si>
-    <t>convertNautMile</t>
-  </si>
-  <si>
-    <t>detDirection</t>
-  </si>
-  <si>
-    <t>Values, calcCorrectAlt, convertAng, convertDeg</t>
-  </si>
-  <si>
-    <t>Actually did this before planning but didn't realize it, transferred to sheet</t>
+    <t>Begin TDD</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'long':'95d41.6', 'altitude':'13d42.4', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'long':'95d41.6', 'altitude':'13d42.4', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'mandatory information is missing'}</t>
+  </si>
+  <si>
+    <t>Add code to check for parameters</t>
+  </si>
+  <si>
+    <t>Mispelled 'dispatch'</t>
+  </si>
+  <si>
+    <t>Forgot to return values for invLong</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '16d32.3', 'long':'360d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'invalid long'}</t>
+  </si>
+  <si>
+    <t>return error Lat instead error Long</t>
+  </si>
+  <si>
+    <t>mistype expectedResult</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '-90d32.3', 'long':'95.0d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
+  </si>
+  <si>
+    <t>typo in test expectedResult</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '-90d32.3', 'long':'95.0d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'invalid lat'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '90d60.0', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3','error':'invalid lat'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '90d60.0', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3'}</t>
+  </si>
+  <si>
+    <t>called assumedLat instead Lat</t>
+  </si>
+  <si>
+    <t>sad path not sad b/c 89 &lt; 90</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'90d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'74d35.3', 'error':'invalid altitude'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'-74d35.3','error':'invalid assumedLong'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat': '16d32.3', 'long':'95d41.6', 'altitude':'13d42.3', 'assumedLat':'-53d38.4', 'assumedLong':'7435.3','error':'invalid assumedLong'}</t>
+  </si>
+  <si>
+    <t>Shouldn't be dividing arcmin by 60</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat':'89d20.1', 'long':'154d5.4', 'altitude':'37d17.4','assumedLat':'35d59.7','assumedLong':'74d35.3','correctedDistance':'93d209.1'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat':'89d20.1', 'long':'154d5.4', 'altitude':'37d17.4','assumedLat':'35d59.7','assumedLong':'74d35.3','correctedAzimuth':'93d209.1'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat':'89d20.1', 'long':'154d5.4', 'altitude':'37d17.4','assumedLat':'35d59.7','assumedLong':'74d35.3','correctedAzimuth':'93d209.1','correctedDistance':'93d023.1'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat':'89d20.1', 'long':'154d5.4', 'altitude':'37d17.4','assumedLat':'35d59.7','assumedLong':'74d35.3','correctedDistance':'93d209.1','error':'correctedDistance and/or correctedAzimuth already present'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat':'89d20.1', 'long':'154d5.4', 'altitude':'37d17.4','assumedLat':'35d59.7','assumedLong':'74d35.3','correctedAzimuth':'93d209.1','error':'correctedDistance and/or correctedAzimuth already present'}</t>
+  </si>
+  <si>
+    <t>{'op':'correct', 'lat':'89d20.1', 'long':'154d5.4', 'altitude':'37d17.4','assumedLat':'35d59.7','assumedLong':'74d35.3','correctedAzimuth':'93d209.1','correctedDistance':'93d023.1','error':'correctedDistance and/or correctedAzimuth already present'}</t>
+  </si>
+  <si>
+    <t>why printing error assumedLat not Long, need to adjust reg exp</t>
+  </si>
+  <si>
+    <t>if statements are hard</t>
+  </si>
+  <si>
+    <t>Why isn't this Num &gt; x &gt; Num2 exp working?  It is.</t>
+  </si>
+  <si>
+    <t>If statements are hard, TDD is messing up, grrr</t>
+  </si>
+  <si>
+    <t>Double neg are confusing, toy with isinstance</t>
+  </si>
+  <si>
+    <t>Finally all sad tests done</t>
+  </si>
+  <si>
+    <t>CRC cards</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>TDD on correctedDist / troubleshooting classes</t>
+  </si>
+  <si>
+    <t>Finish up TDD</t>
+  </si>
+  <si>
+    <t>Check other acceptance tests</t>
+  </si>
+  <si>
+    <t>Wanted to combine conditionals, but figured better if didn't</t>
+  </si>
+  <si>
+    <t>Problem calc dist, perhaps bc lat neg</t>
+  </si>
+  <si>
+    <t>def __init__</t>
+  </si>
+  <si>
+    <t>convertAngleFromDeg</t>
+  </si>
+  <si>
+    <t>Values, convertAngleFromDeg</t>
+  </si>
+  <si>
+    <t>Values, convertAngleToDeg</t>
+  </si>
+  <si>
+    <t>calcIntDist</t>
+  </si>
+  <si>
+    <t>calcCorrectedAlt</t>
+  </si>
+  <si>
+    <t>Values, calcIntDist</t>
+  </si>
+  <si>
+    <t>Values, calcIntDist, convertAngleToDeg</t>
+  </si>
+  <si>
+    <t>calcCorrectedAzimuth</t>
+  </si>
+  <si>
+    <t>calcCorrectedAlt, calcCorrectedAzimuth</t>
+  </si>
+  <si>
+    <t>Tidy up degree conversion/ attempt to simpl dispatch; tried to extract out each parameter check as method, but no cigar; redundancy in methods but difficult to remove odious smell without affecting everything else, so moving on</t>
+  </si>
+  <si>
+    <t>Record LOC etc</t>
   </si>
 </sst>
 </file>
@@ -6217,7 +6304,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -7448,6 +7535,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10595,7 +10689,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -11330,8 +11424,8 @@
   </sheetPr>
   <dimension ref="A1:F297"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B132" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11737,7 +11831,7 @@
         <v>220</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -11777,7 +11871,9 @@
       <c r="B48" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="483"/>
@@ -11785,7 +11881,7 @@
         <v>218</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11836,7 +11932,7 @@
         <v>220</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -11877,7 +11973,7 @@
         <v>217</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>1158</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -11886,7 +11982,7 @@
         <v>218</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11937,7 +12033,7 @@
         <v>220</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1159</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -11978,7 +12074,7 @@
         <v>217</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>1160</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -11987,7 +12083,7 @@
         <v>218</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12038,7 +12134,7 @@
         <v>220</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>1162</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -12079,7 +12175,7 @@
         <v>217</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1163</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -12088,7 +12184,7 @@
         <v>218</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>1164</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12139,7 +12235,7 @@
         <v>220</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>1165</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -12171,7 +12267,7 @@
         <v>216</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -12179,7 +12275,9 @@
       <c r="B116" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C116" s="10"/>
+      <c r="C116" s="10" t="s">
+        <v>1193</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="483"/>
@@ -12187,7 +12285,7 @@
         <v>218</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>1165</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12238,7 +12336,7 @@
         <v>220</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>1166</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -12270,7 +12368,7 @@
         <v>216</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -12279,7 +12377,7 @@
         <v>217</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1167</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -12288,7 +12386,7 @@
         <v>218</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1166</v>
+        <v>577</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14811,8 +14909,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16110,10 +16208,12 @@
       <c r="C48" s="52">
         <v>126</v>
       </c>
-      <c r="D48" s="174"/>
+      <c r="D48" s="174">
+        <v>126</v>
+      </c>
       <c r="E48" s="167">
         <f>D48+'Historical Data'!E52</f>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -16127,7 +16227,9 @@
       <c r="C49" s="52">
         <v>0</v>
       </c>
-      <c r="D49" s="174"/>
+      <c r="D49" s="174">
+        <v>0</v>
+      </c>
       <c r="E49" s="167">
         <f>D49+'Historical Data'!E53</f>
         <v>0</v>
@@ -16144,10 +16246,12 @@
       <c r="C50" s="52">
         <v>90</v>
       </c>
-      <c r="D50" s="174"/>
+      <c r="D50" s="174">
+        <v>4</v>
+      </c>
       <c r="E50" s="167">
         <f>D50+'Historical Data'!E54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -16161,10 +16265,12 @@
       <c r="C51" s="52">
         <v>3</v>
       </c>
-      <c r="D51" s="174"/>
+      <c r="D51" s="174">
+        <v>100</v>
+      </c>
       <c r="E51" s="167">
         <f>D51+'Historical Data'!E55</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -16193,10 +16299,12 @@
       <c r="C53" s="52">
         <v>63</v>
       </c>
-      <c r="D53" s="174"/>
+      <c r="D53" s="174">
+        <v>32</v>
+      </c>
       <c r="E53" s="167">
         <f>D53+'Historical Data'!E57</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G53" s="51"/>
       <c r="H53" s="51"/>
@@ -16232,10 +16340,12 @@
       <c r="C56" s="52">
         <v>3</v>
       </c>
-      <c r="D56" s="174"/>
+      <c r="D56" s="174">
+        <v>3</v>
+      </c>
       <c r="E56" s="167">
         <f>D56+'Historical Data'!E60</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -16249,10 +16359,12 @@
       <c r="C57" s="52">
         <v>1</v>
       </c>
-      <c r="D57" s="174"/>
+      <c r="D57" s="174">
+        <v>2</v>
+      </c>
       <c r="E57" s="167">
         <f>D57+'Historical Data'!E61</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="51"/>
       <c r="H57" s="51"/>
@@ -16266,10 +16378,12 @@
       <c r="C58" s="52">
         <v>6</v>
       </c>
-      <c r="D58" s="174"/>
+      <c r="D58" s="174">
+        <v>5</v>
+      </c>
       <c r="E58" s="167">
         <f>D58+'Historical Data'!E62</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G58" s="51"/>
       <c r="H58" s="51"/>
@@ -16317,7 +16431,7 @@
       </c>
       <c r="F61" s="27">
         <f>IF($E$72=0,0,E61/$E$72)</f>
-        <v>0.22058823529411736</v>
+        <v>5.2754982415005806E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -16331,15 +16445,15 @@
       </c>
       <c r="D62" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A62,'Time Log'!$E$48:$E$137)</f>
-        <v>13.99999999999995</v>
+        <v>85</v>
       </c>
       <c r="E62" s="158">
         <f>D62+'Historical Data'!E66</f>
-        <v>13.99999999999995</v>
+        <v>85</v>
       </c>
       <c r="F62" s="27">
         <f t="shared" ref="F62:F70" si="1">IF($E$72=0,0,E62/$E$72)</f>
-        <v>6.8627450980391913E-2</v>
+        <v>9.9648300117233315E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -16353,15 +16467,15 @@
       </c>
       <c r="D63" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A63,'Time Log'!$E$48:$E$137)</f>
-        <v>145.00000000000011</v>
+        <v>74.000000000000057</v>
       </c>
       <c r="E63" s="158">
         <f>D63+'Historical Data'!E67</f>
-        <v>145.00000000000011</v>
+        <v>74.000000000000057</v>
       </c>
       <c r="F63" s="27">
         <f t="shared" si="1"/>
-        <v>0.71078431372549078</v>
+        <v>8.6752637749120842E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -16397,15 +16511,15 @@
       </c>
       <c r="D65" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A65,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>495.99999999999972</v>
       </c>
       <c r="E65" s="158">
         <f>D65+'Historical Data'!E69</f>
-        <v>0</v>
+        <v>495.99999999999972</v>
       </c>
       <c r="F65" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58147713950762003</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -16419,15 +16533,15 @@
       </c>
       <c r="D66" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A66,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>10.000000000000124</v>
       </c>
       <c r="E66" s="158">
         <f>D66+'Historical Data'!E70</f>
-        <v>0</v>
+        <v>10.000000000000124</v>
       </c>
       <c r="F66" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1723329425557007E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -16441,15 +16555,15 @@
       </c>
       <c r="D67" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A67,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="E67" s="158">
         <f>D67+'Historical Data'!E71</f>
-        <v>0</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="F67" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.344665885111364E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -16507,15 +16621,15 @@
       </c>
       <c r="D70" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A70,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>14.999999999999947</v>
       </c>
       <c r="E70" s="158">
         <f>D70+'Historical Data'!E74</f>
-        <v>0</v>
+        <v>14.999999999999947</v>
       </c>
       <c r="F70" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7584994138335228E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -16529,15 +16643,15 @@
       </c>
       <c r="D71" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A71,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>108.00000000000004</v>
       </c>
       <c r="E71" s="158">
         <f>D71+'Historical Data'!E75</f>
-        <v>0</v>
+        <v>108.00000000000004</v>
       </c>
       <c r="F71" s="27">
         <f>IF($E$72=0,0,E71/$E$72)</f>
-        <v>0</v>
+        <v>0.12661195779601414</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -16549,11 +16663,11 @@
       </c>
       <c r="D72" s="169">
         <f>SUM(D61:D71)</f>
-        <v>204</v>
+        <v>852.99999999999977</v>
       </c>
       <c r="E72" s="158">
         <f>D72+'Historical Data'!E76</f>
-        <v>204</v>
+        <v>852.99999999999977</v>
       </c>
       <c r="F72" s="27">
         <f>IF($E$72=0,0,E72/$E$72)</f>
@@ -16663,15 +16777,15 @@
       </c>
       <c r="D79" s="25">
         <f>COUNTIF('Change Log'!$D$60:$D$134,A79)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E79" s="25">
         <f>D79+'Historical Data'!E83</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F79" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
@@ -16788,15 +16902,15 @@
       </c>
       <c r="D86" s="25">
         <f>SUM(D75:D85)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E86" s="25">
         <f>D86+'Historical Data'!E90</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F86" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
@@ -16898,15 +17012,15 @@
       </c>
       <c r="D93" s="25">
         <f>COUNTIF('Change Log'!$F$60:$F$134,A93)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E93" s="25">
         <f>D93+'Historical Data'!E97</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F93" s="225">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
@@ -17023,15 +17137,15 @@
       </c>
       <c r="D100" s="25">
         <f>SUM(D89:D99)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E100" s="25">
         <f>D100+'Historical Data'!E104</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F100" s="225">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19857,7 +19971,7 @@
       </c>
       <c r="E41" s="187">
         <f>D41+'Historical Data'!E52</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="51"/>
@@ -19923,7 +20037,7 @@
       </c>
       <c r="E44" s="187">
         <f>D44+'Historical Data'!E55</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="51"/>
@@ -19967,7 +20081,7 @@
       </c>
       <c r="E46" s="187">
         <f>D46+'Historical Data'!E57</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="51"/>
@@ -20023,7 +20137,7 @@
       </c>
       <c r="F50" s="27">
         <f>IF($E$59=0,0,E50/$E$59)</f>
-        <v>0</v>
+        <v>3.0000000000000067</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -20037,15 +20151,15 @@
       </c>
       <c r="D51" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A51,'Time Log'!$E$48:$E$137)</f>
-        <v>13.99999999999995</v>
+        <v>85</v>
       </c>
       <c r="E51" s="158">
         <f>D51+'Historical Data'!E66</f>
-        <v>13.99999999999995</v>
+        <v>85</v>
       </c>
       <c r="F51" s="27">
         <f t="shared" ref="F51:F61" si="0">IF($E$59=0,0,E51/$E$59)</f>
-        <v>0</v>
+        <v>5.6666666666666865</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -20059,15 +20173,15 @@
       </c>
       <c r="D52" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A52,'Time Log'!$E$48:$E$137)</f>
-        <v>145.00000000000011</v>
+        <v>74.000000000000057</v>
       </c>
       <c r="E52" s="158">
         <f>D52+'Historical Data'!E67</f>
-        <v>145.00000000000011</v>
+        <v>74.000000000000057</v>
       </c>
       <c r="F52" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9333333333333549</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -20103,15 +20217,15 @@
       </c>
       <c r="D54" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A54,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>495.99999999999972</v>
       </c>
       <c r="E54" s="158">
         <f>D54+'Historical Data'!E69</f>
-        <v>0</v>
+        <v>495.99999999999972</v>
       </c>
       <c r="F54" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.066666666666762</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -20125,15 +20239,15 @@
       </c>
       <c r="D55" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A55,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>10.000000000000124</v>
       </c>
       <c r="E55" s="158">
         <f>D55+'Historical Data'!E70</f>
-        <v>0</v>
+        <v>10.000000000000124</v>
       </c>
       <c r="F55" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666667729</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -20147,15 +20261,15 @@
       </c>
       <c r="D56" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A56,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="E56" s="158">
         <f>D56+'Historical Data'!E71</f>
-        <v>0</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="F56" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -20213,15 +20327,15 @@
       </c>
       <c r="D59" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A59,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>14.999999999999947</v>
       </c>
       <c r="E59" s="158">
         <f>D59+'Historical Data'!E74</f>
-        <v>0</v>
+        <v>14.999999999999947</v>
       </c>
       <c r="F59" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -20235,15 +20349,15 @@
       </c>
       <c r="D60" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A60,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>108.00000000000004</v>
       </c>
       <c r="E60" s="158">
         <f>D60+'Historical Data'!E75</f>
-        <v>0</v>
+        <v>108.00000000000004</v>
       </c>
       <c r="F60" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2000000000000286</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -20257,15 +20371,15 @@
       </c>
       <c r="D61" s="169">
         <f>SUM(D50:D60)</f>
-        <v>204</v>
+        <v>852.99999999999977</v>
       </c>
       <c r="E61" s="169">
         <f>D61+'Historical Data'!E76</f>
-        <v>204</v>
+        <v>852.99999999999977</v>
       </c>
       <c r="F61" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.866666666666852</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -20351,11 +20465,11 @@
       </c>
       <c r="D68" s="25">
         <f>COUNTIF('Change Log'!$D$60:$D$60,A68)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="25">
         <f>D68+'Historical Data'!E83</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -20455,11 +20569,11 @@
       <c r="C75" s="2"/>
       <c r="D75" s="25">
         <f>SUM(D64:D74)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="25">
         <f>D75+'Historical Data'!E90</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2"/>
       <c r="H75" s="2"/>
@@ -20548,11 +20662,11 @@
       </c>
       <c r="D82" s="25">
         <f>COUNTIF('Change Log'!$F$60:$F$60,A82)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="25">
         <f>D82+'Historical Data'!E97</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -20646,11 +20760,11 @@
       </c>
       <c r="D89" s="25">
         <f>SUM(D78:D88)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="25">
         <f>D89+'Historical Data'!E104</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -20684,8 +20798,8 @@
   </sheetPr>
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22643,15 +22757,27 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="11">
+        <v>42851</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
       <c r="I60" s="7"/>
-      <c r="J60" s="175"/>
+      <c r="J60" s="175" t="s">
+        <v>1150</v>
+      </c>
       <c r="K60" s="34" t="str">
         <f ca="1">IF(ISBLANK(I60),"",IF(I60=A60,"&lt;-- Circular reference",IF(ISBLANK(OFFSET($C$59,I60,0)),"&lt;-- Invalid reference","")))</f>
         <v/>
@@ -22664,15 +22790,27 @@
         <f t="shared" ref="A61:A92" si="2">A60+1</f>
         <v>2</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="B61" s="11">
+        <v>42851</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="175"/>
+      <c r="J61" s="175" t="s">
+        <v>1151</v>
+      </c>
       <c r="K61" s="34" t="str">
         <f t="shared" ref="K61:K109" ca="1" si="3">IF(ISBLANK(I61),"",IF(I61=A61,"&lt;-- Circular reference",IF(ISBLANK(OFFSET($C$59,I61,0)),"&lt;-- Invalid reference","")))</f>
         <v/>
@@ -22685,15 +22823,27 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="B62" s="11">
+        <v>42851</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="495" t="s">
+        <v>127</v>
+      </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="495" t="s">
+        <v>127</v>
+      </c>
       <c r="G62" s="5"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="175"/>
+      <c r="J62" s="175" t="s">
+        <v>1152</v>
+      </c>
       <c r="K62" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22706,15 +22856,27 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C63" s="495" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G63" s="5"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
       <c r="I63" s="7"/>
-      <c r="J63" s="175"/>
+      <c r="J63" s="175" t="s">
+        <v>1154</v>
+      </c>
       <c r="K63" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22727,15 +22889,27 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G64" s="5"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="175"/>
+      <c r="J64" s="175" t="s">
+        <v>1155</v>
+      </c>
       <c r="K64" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22748,15 +22922,27 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C65" s="495" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="495" t="s">
+        <v>127</v>
+      </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="495" t="s">
+        <v>127</v>
+      </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7">
+        <v>2</v>
+      </c>
       <c r="I65" s="7"/>
-      <c r="J65" s="175"/>
+      <c r="J65" s="175" t="s">
+        <v>1157</v>
+      </c>
       <c r="K65" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22769,15 +22955,27 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
       <c r="I66" s="7"/>
-      <c r="J66" s="175"/>
+      <c r="J66" s="175" t="s">
+        <v>1161</v>
+      </c>
       <c r="K66" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22790,15 +22988,27 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="495" t="s">
+        <v>127</v>
+      </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="495" t="s">
+        <v>127</v>
+      </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7">
+        <v>3</v>
+      </c>
       <c r="I67" s="7"/>
-      <c r="J67" s="175"/>
+      <c r="J67" s="175" t="s">
+        <v>1162</v>
+      </c>
       <c r="K67" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22811,15 +23021,27 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="B68" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7">
+        <v>15</v>
+      </c>
       <c r="I68" s="7"/>
-      <c r="J68" s="175"/>
+      <c r="J68" s="175" t="s">
+        <v>1166</v>
+      </c>
       <c r="K68" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22827,20 +23049,32 @@
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A69" s="43">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="B69" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="7">
+        <v>30</v>
+      </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="175"/>
+      <c r="J69" s="175" t="s">
+        <v>1173</v>
+      </c>
       <c r="K69" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22853,15 +23087,27 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="B70" s="11">
+        <v>42852</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7">
+        <v>10</v>
+      </c>
       <c r="I70" s="7"/>
-      <c r="J70" s="175"/>
+      <c r="J70" s="175" t="s">
+        <v>1174</v>
+      </c>
       <c r="K70" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22869,20 +23115,32 @@
       <c r="L70" s="34"/>
       <c r="M70" s="34"/>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A71" s="43">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="B71" s="11">
+        <v>42855</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7">
+        <v>45</v>
+      </c>
       <c r="I71" s="7"/>
-      <c r="J71" s="175"/>
+      <c r="J71" s="175" t="s">
+        <v>1185</v>
+      </c>
       <c r="K71" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -24260,8 +24518,8 @@
   </sheetPr>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25637,11 +25895,11 @@
         <v>85</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="42" t="s">
-        <v>1137</v>
+        <v>1179</v>
       </c>
       <c r="I50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25668,7 +25926,7 @@
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="42" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="I51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25695,15 +25953,17 @@
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="42" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
       <c r="I52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="11">
+        <v>42850</v>
+      </c>
       <c r="B53" s="12">
         <v>0.98958333333333337</v>
       </c>
@@ -25716,11 +25976,11 @@
         <v>13.99999999999995</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="42" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="I53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25728,204 +25988,328 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="16" t="str">
+      <c r="A54" s="11">
+        <v>42851</v>
+      </c>
+      <c r="B54" s="12">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D54" s="7">
+        <v>10</v>
+      </c>
+      <c r="E54" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" s="10"/>
+        <v>68.999999999999886</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="42"/>
+      <c r="H54" s="42" t="s">
+        <v>1146</v>
+      </c>
       <c r="I54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="11">
+        <v>42851</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1.2499999999999999E-2</v>
+      </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="16" t="str">
+      <c r="E55" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="42"/>
+      <c r="H55" s="42" t="s">
+        <v>1175</v>
+      </c>
       <c r="I55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="16" t="str">
+      <c r="A56" s="11">
+        <v>42851</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="C56" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5</v>
+      </c>
+      <c r="E56" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F56" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="42"/>
+      <c r="H56" s="42" t="s">
+        <v>1176</v>
+      </c>
       <c r="I56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="11">
+        <v>42851</v>
+      </c>
+      <c r="B57" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="16" t="str">
+      <c r="E57" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" s="10"/>
+        <v>30.000000000000014</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="42"/>
+      <c r="H57" s="42" t="s">
+        <v>1177</v>
+      </c>
       <c r="I57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="11">
+        <v>42851</v>
+      </c>
+      <c r="B58" s="12">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0.11458333333333333</v>
+      </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="16" t="str">
+      <c r="E58" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F58" s="10"/>
+        <v>14.999999999999986</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="42"/>
+      <c r="H58" s="42" t="s">
+        <v>1178</v>
+      </c>
       <c r="I58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="11">
+        <v>42853</v>
+      </c>
+      <c r="B59" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0.5</v>
+      </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="16" t="str">
+      <c r="E59" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="10"/>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="42"/>
+      <c r="H59" s="42" t="s">
+        <v>1180</v>
+      </c>
       <c r="I59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="11">
+        <v>42853</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="16" t="str">
+      <c r="E60" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F60" s="10"/>
+        <v>209.99999999999989</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="42"/>
+      <c r="H60" s="42" t="s">
+        <v>1181</v>
+      </c>
       <c r="I60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="11">
+        <v>42855</v>
+      </c>
+      <c r="B61" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="16" t="str">
+      <c r="E61" s="16">
         <f t="shared" ref="E61:E76" si="2">IF(OR(ISBLANK(B61),ISBLANK(C61)),"",(C61-B61)*24*60-D61)</f>
-        <v/>
-      </c>
-      <c r="F61" s="10"/>
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="42"/>
+      <c r="H61" s="42" t="s">
+        <v>1182</v>
+      </c>
       <c r="I61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="11">
+        <v>42855</v>
+      </c>
+      <c r="B62" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="16" t="str">
+      <c r="E62" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F62" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="42"/>
+      <c r="H62" s="42" t="s">
+        <v>1183</v>
+      </c>
       <c r="I62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="11">
+        <v>42855</v>
+      </c>
+      <c r="B63" s="12">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C63" s="12">
+        <v>0.89930555555555547</v>
+      </c>
       <c r="D63" s="7"/>
-      <c r="E63" s="16" t="str">
+      <c r="E63" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F63" s="10"/>
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="42"/>
+      <c r="H63" s="42" t="s">
+        <v>1184</v>
+      </c>
       <c r="I63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+    <row r="64" spans="1:9" ht="65" x14ac:dyDescent="0.15">
+      <c r="A64" s="11">
+        <v>42855</v>
+      </c>
+      <c r="B64" s="12">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="C64" s="12">
+        <v>0.90625</v>
+      </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="16" t="str">
+      <c r="E64" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F64" s="10"/>
+        <v>10.000000000000124</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="42"/>
+      <c r="H64" s="42" t="s">
+        <v>1196</v>
+      </c>
       <c r="I64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="11">
+        <v>42855</v>
+      </c>
+      <c r="B65" s="12">
+        <v>0.90625</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="16" t="str">
+      <c r="E65" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F65" s="10"/>
+        <v>14.999999999999947</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="42"/>
+      <c r="H65" s="42" t="s">
+        <v>1197</v>
+      </c>
       <c r="I65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -27392,8 +27776,8 @@
   </sheetPr>
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C45"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -30022,8 +30406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M348"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B232" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F245" sqref="F245:H245"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F236" sqref="F236:H236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -35325,7 +35709,7 @@
   </sheetPr>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A126" workbookViewId="0">
       <selection activeCell="C51" sqref="C51:D51"/>
     </sheetView>
   </sheetViews>
@@ -36600,7 +36984,7 @@
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="465" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="D48" s="465"/>
       <c r="E48" s="8"/>
@@ -36611,7 +36995,7 @@
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="465" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="D49" s="465"/>
       <c r="E49" s="8"/>
@@ -36622,7 +37006,7 @@
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="465" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="D50" s="465"/>
       <c r="E50" s="8"/>
@@ -38471,7 +38855,7 @@
   <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -39797,7 +40181,9 @@
       <c r="D52" s="52">
         <v>81</v>
       </c>
-      <c r="E52" s="52"/>
+      <c r="E52" s="52">
+        <v>81</v>
+      </c>
       <c r="F52" s="323"/>
       <c r="G52" s="323"/>
       <c r="H52" s="51"/>
@@ -39813,7 +40199,9 @@
       <c r="D53" s="52">
         <v>0</v>
       </c>
-      <c r="E53" s="52"/>
+      <c r="E53" s="52">
+        <v>0</v>
+      </c>
       <c r="F53" s="323"/>
       <c r="G53" s="323"/>
       <c r="H53" s="51"/>
@@ -39829,7 +40217,9 @@
       <c r="D54" s="52">
         <v>0</v>
       </c>
-      <c r="E54" s="52"/>
+      <c r="E54" s="52">
+        <v>0</v>
+      </c>
       <c r="F54" s="323"/>
       <c r="G54" s="323"/>
       <c r="H54" s="51"/>
@@ -39845,7 +40235,9 @@
       <c r="D55" s="52">
         <v>32</v>
       </c>
-      <c r="E55" s="52"/>
+      <c r="E55" s="52">
+        <v>32</v>
+      </c>
       <c r="F55" s="323"/>
       <c r="G55" s="323"/>
       <c r="H55" s="51"/>
@@ -39873,7 +40265,9 @@
       <c r="D57" s="53">
         <v>63</v>
       </c>
-      <c r="E57" s="53"/>
+      <c r="E57" s="53">
+        <v>144</v>
+      </c>
       <c r="F57" s="323"/>
       <c r="G57" s="323"/>
       <c r="H57" s="51"/>
@@ -39931,7 +40325,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="323"/>
       <c r="G61" s="323"/>
@@ -39948,7 +40342,9 @@
       <c r="D62" s="53">
         <v>9</v>
       </c>
-      <c r="E62" s="53"/>
+      <c r="E62" s="53">
+        <v>10</v>
+      </c>
       <c r="F62" s="323"/>
       <c r="G62" s="323"/>
       <c r="H62" s="51"/>
@@ -40219,7 +40615,7 @@
         <v>196</v>
       </c>
       <c r="C76" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="D76" s="7">
         <v>540</v>
@@ -40943,7 +41339,7 @@
       </c>
       <c r="E120" s="80">
         <f>C76</f>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="F120" s="80">
         <f>D76</f>
@@ -41065,7 +41461,7 @@
     </row>
     <row r="128" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="465" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="B128" s="465"/>
       <c r="C128" s="79">
@@ -41094,7 +41490,7 @@
     </row>
     <row r="129" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="465" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="B129" s="465"/>
       <c r="C129" s="79">
@@ -41123,7 +41519,7 @@
     </row>
     <row r="130" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="465" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="B130" s="465"/>
       <c r="C130" s="79">
@@ -41155,7 +41551,7 @@
     </row>
     <row r="131" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="465" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="B131" s="465"/>
       <c r="C131" s="79">
@@ -41188,7 +41584,7 @@
     </row>
     <row r="132" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="465" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="B132" s="465"/>
       <c r="C132" s="79">
@@ -41221,7 +41617,7 @@
     </row>
     <row r="133" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="465" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="B133" s="465"/>
       <c r="C133" s="79">
@@ -41254,7 +41650,7 @@
     </row>
     <row r="134" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="475" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="B134" s="465"/>
       <c r="C134" s="79">
@@ -41283,7 +41679,7 @@
     </row>
     <row r="135" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="465" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="B135" s="465"/>
       <c r="C135" s="79">
@@ -41312,7 +41708,7 @@
     </row>
     <row r="136" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="465" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="B136" s="465"/>
       <c r="C136" s="79">
@@ -41341,7 +41737,7 @@
     </row>
     <row r="137" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="465" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="B137" s="465"/>
       <c r="C137" s="79">
@@ -41370,7 +41766,7 @@
     </row>
     <row r="138" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="465" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="B138" s="465"/>
       <c r="C138" s="79">
@@ -45234,8 +45630,8 @@
   </sheetPr>
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -46598,7 +46994,9 @@
         <v>1055</v>
       </c>
       <c r="D52" s="59"/>
-      <c r="E52" s="61"/>
+      <c r="E52" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F52" s="173"/>
     </row>
     <row r="53" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46606,13 +47004,15 @@
         <v>669</v>
       </c>
       <c r="B53" s="173" t="s">
-        <v>1056</v>
+        <v>1148</v>
       </c>
       <c r="C53" s="173" t="s">
-        <v>1057</v>
+        <v>1149</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="61"/>
+      <c r="E53" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F53" s="173"/>
     </row>
     <row r="54" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46620,13 +47020,15 @@
         <v>669</v>
       </c>
       <c r="B54" s="173" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C54" s="173" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
+      <c r="E54" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F54" s="173"/>
     </row>
     <row r="55" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46634,13 +47036,15 @@
         <v>669</v>
       </c>
       <c r="B55" s="173" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="C55" s="173" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="61"/>
+      <c r="E55" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F55" s="173"/>
     </row>
     <row r="56" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46648,13 +47052,15 @@
         <v>667</v>
       </c>
       <c r="B56" s="173" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C56" s="173" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
+      <c r="E56" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="F56" s="173"/>
     </row>
     <row r="57" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46662,13 +47068,15 @@
         <v>668</v>
       </c>
       <c r="B57" s="173" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C57" s="173" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="61"/>
+      <c r="E57" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="F57" s="173"/>
     </row>
     <row r="58" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46676,13 +47084,15 @@
         <v>669</v>
       </c>
       <c r="B58" s="173" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C58" s="173" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
+      <c r="E58" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F58" s="173"/>
     </row>
     <row r="59" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46690,13 +47100,15 @@
         <v>667</v>
       </c>
       <c r="B59" s="173" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C59" s="173" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="61"/>
+      <c r="E59" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="F59" s="173"/>
     </row>
     <row r="60" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46704,13 +47116,15 @@
         <v>668</v>
       </c>
       <c r="B60" s="173" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C60" s="173" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="61"/>
+      <c r="E60" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="F60" s="173"/>
     </row>
     <row r="61" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46718,13 +47132,15 @@
         <v>669</v>
       </c>
       <c r="B61" s="173" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C61" s="173" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D61" s="59"/>
-      <c r="E61" s="61"/>
+      <c r="E61" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F61" s="173"/>
     </row>
     <row r="62" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46732,13 +47148,15 @@
         <v>669</v>
       </c>
       <c r="B62" s="173" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C62" s="173" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D62" s="59"/>
-      <c r="E62" s="61"/>
+      <c r="E62" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F62" s="173"/>
     </row>
     <row r="63" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46746,13 +47164,15 @@
         <v>669</v>
       </c>
       <c r="B63" s="173" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C63" s="173" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D63" s="59"/>
-      <c r="E63" s="61"/>
+      <c r="E63" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F63" s="173"/>
     </row>
     <row r="64" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46760,13 +47180,15 @@
         <v>669</v>
       </c>
       <c r="B64" s="173" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C64" s="173" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D64" s="59"/>
-      <c r="E64" s="61"/>
+      <c r="E64" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F64" s="173"/>
     </row>
     <row r="65" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46774,13 +47196,15 @@
         <v>669</v>
       </c>
       <c r="B65" s="173" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C65" s="173" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="61"/>
+      <c r="E65" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F65" s="173"/>
     </row>
     <row r="66" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46788,13 +47212,15 @@
         <v>669</v>
       </c>
       <c r="B66" s="173" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C66" s="173" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
+      <c r="E66" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F66" s="173"/>
     </row>
     <row r="67" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46802,13 +47228,15 @@
         <v>669</v>
       </c>
       <c r="B67" s="173" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C67" s="173" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D67" s="59"/>
-      <c r="E67" s="61"/>
+      <c r="E67" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F67" s="173"/>
     </row>
     <row r="68" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46816,13 +47244,15 @@
         <v>669</v>
       </c>
       <c r="B68" s="173" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C68" s="173" t="s">
-        <v>1081</v>
+        <v>1153</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
+      <c r="E68" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F68" s="173"/>
     </row>
     <row r="69" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46830,13 +47260,15 @@
         <v>669</v>
       </c>
       <c r="B69" s="173" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C69" s="173" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D69" s="59"/>
-      <c r="E69" s="61"/>
+      <c r="E69" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F69" s="173"/>
     </row>
     <row r="70" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46844,13 +47276,15 @@
         <v>669</v>
       </c>
       <c r="B70" s="173" t="s">
-        <v>1088</v>
+        <v>1156</v>
       </c>
       <c r="C70" s="173" t="s">
-        <v>1089</v>
+        <v>1158</v>
       </c>
       <c r="D70" s="59"/>
-      <c r="E70" s="61"/>
+      <c r="E70" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F70" s="173"/>
     </row>
     <row r="71" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46858,13 +47292,15 @@
         <v>669</v>
       </c>
       <c r="B71" s="173" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C71" s="173" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="D71" s="59"/>
-      <c r="E71" s="61"/>
+      <c r="E71" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F71" s="173"/>
     </row>
     <row r="72" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46872,13 +47308,15 @@
         <v>669</v>
       </c>
       <c r="B72" s="173" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C72" s="173" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
+      <c r="E72" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F72" s="173"/>
     </row>
     <row r="73" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46886,13 +47324,15 @@
         <v>669</v>
       </c>
       <c r="B73" s="173" t="s">
-        <v>1094</v>
+        <v>1160</v>
       </c>
       <c r="C73" s="173" t="s">
-        <v>1095</v>
+        <v>1159</v>
       </c>
       <c r="D73" s="59"/>
-      <c r="E73" s="61"/>
+      <c r="E73" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F73" s="173"/>
     </row>
     <row r="74" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46900,13 +47340,15 @@
         <v>669</v>
       </c>
       <c r="B74" s="173" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C74" s="173" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
+      <c r="E74" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F74" s="173"/>
     </row>
     <row r="75" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46914,13 +47356,15 @@
         <v>669</v>
       </c>
       <c r="B75" s="173" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C75" s="173" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="D75" s="59"/>
-      <c r="E75" s="61"/>
+      <c r="E75" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F75" s="173"/>
     </row>
     <row r="76" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46928,13 +47372,15 @@
         <v>669</v>
       </c>
       <c r="B76" s="173" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="C76" s="173" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="D76" s="59"/>
-      <c r="E76" s="61"/>
+      <c r="E76" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F76" s="173"/>
     </row>
     <row r="77" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46942,13 +47388,15 @@
         <v>669</v>
       </c>
       <c r="B77" s="173" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C77" s="173" t="s">
-        <v>1102</v>
+        <v>1163</v>
       </c>
       <c r="D77" s="59"/>
-      <c r="E77" s="61"/>
+      <c r="E77" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F77" s="173"/>
     </row>
     <row r="78" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46956,13 +47404,15 @@
         <v>669</v>
       </c>
       <c r="B78" s="173" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="C78" s="173" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="D78" s="59"/>
-      <c r="E78" s="61"/>
+      <c r="E78" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F78" s="173"/>
     </row>
     <row r="79" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46970,13 +47420,15 @@
         <v>669</v>
       </c>
       <c r="B79" s="173" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C79" s="173" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="D79" s="59"/>
-      <c r="E79" s="61"/>
+      <c r="E79" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F79" s="173"/>
     </row>
     <row r="80" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46984,13 +47436,15 @@
         <v>669</v>
       </c>
       <c r="B80" s="173" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C80" s="173" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="D80" s="59"/>
-      <c r="E80" s="61"/>
+      <c r="E80" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F80" s="173"/>
     </row>
     <row r="81" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -46998,13 +47452,15 @@
         <v>669</v>
       </c>
       <c r="B81" s="173" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C81" s="173" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D81" s="59"/>
-      <c r="E81" s="61"/>
+      <c r="E81" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F81" s="173"/>
     </row>
     <row r="82" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47012,13 +47468,15 @@
         <v>669</v>
       </c>
       <c r="B82" s="173" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="C82" s="173" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D82" s="59"/>
-      <c r="E82" s="61"/>
+      <c r="E82" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F82" s="173"/>
     </row>
     <row r="83" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47026,13 +47484,15 @@
         <v>669</v>
       </c>
       <c r="B83" s="173" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="C83" s="173" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="D83" s="59"/>
-      <c r="E83" s="61"/>
+      <c r="E83" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F83" s="173"/>
     </row>
     <row r="84" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47040,13 +47500,15 @@
         <v>669</v>
       </c>
       <c r="B84" s="173" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="C84" s="173" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D84" s="59"/>
-      <c r="E84" s="61"/>
+      <c r="E84" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47054,13 +47516,15 @@
         <v>669</v>
       </c>
       <c r="B85" s="173" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C85" s="173" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="D85" s="59"/>
-      <c r="E85" s="61"/>
+      <c r="E85" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F85" s="173"/>
     </row>
     <row r="86" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47068,13 +47532,15 @@
         <v>669</v>
       </c>
       <c r="B86" s="173" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="C86" s="173" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="D86" s="59"/>
-      <c r="E86" s="61"/>
+      <c r="E86" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F86" s="173"/>
     </row>
     <row r="87" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47082,13 +47548,15 @@
         <v>669</v>
       </c>
       <c r="B87" s="173" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C87" s="173" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="D87" s="59"/>
-      <c r="E87" s="61"/>
+      <c r="E87" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F87" s="173"/>
     </row>
     <row r="88" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47096,13 +47564,15 @@
         <v>669</v>
       </c>
       <c r="B88" s="173" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="C88" s="173" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="D88" s="59"/>
-      <c r="E88" s="61"/>
+      <c r="E88" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F88" s="173"/>
     </row>
     <row r="89" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47110,13 +47580,15 @@
         <v>669</v>
       </c>
       <c r="B89" s="173" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="C89" s="173" t="s">
-        <v>1128</v>
+        <v>1165</v>
       </c>
       <c r="D89" s="59"/>
-      <c r="E89" s="61"/>
+      <c r="E89" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F89" s="173"/>
     </row>
     <row r="90" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47124,13 +47596,15 @@
         <v>669</v>
       </c>
       <c r="B90" s="173" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="C90" s="173" t="s">
-        <v>1130</v>
+        <v>1164</v>
       </c>
       <c r="D90" s="59"/>
-      <c r="E90" s="61"/>
+      <c r="E90" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F90" s="173"/>
     </row>
     <row r="91" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47138,13 +47612,15 @@
         <v>669</v>
       </c>
       <c r="B91" s="173" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C91" s="173" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="D91" s="59"/>
-      <c r="E91" s="61"/>
+      <c r="E91" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F91" s="173"/>
     </row>
     <row r="92" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47152,13 +47628,15 @@
         <v>669</v>
       </c>
       <c r="B92" s="173" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C92" s="173" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="D92" s="59"/>
-      <c r="E92" s="61"/>
+      <c r="E92" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F92" s="173"/>
     </row>
     <row r="93" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -47166,45 +47644,61 @@
         <v>669</v>
       </c>
       <c r="B93" s="173" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C93" s="173" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="D93" s="59"/>
-      <c r="E93" s="61"/>
+      <c r="E93" s="494" t="s">
+        <v>1147</v>
+      </c>
       <c r="F93" s="173"/>
     </row>
     <row r="94" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="173" t="s">
         <v>669</v>
       </c>
-      <c r="B94" s="60"/>
+      <c r="B94" s="173" t="s">
+        <v>1167</v>
+      </c>
       <c r="C94" s="173" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="D94" s="59"/>
-      <c r="E94" s="61"/>
+      <c r="E94" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F94" s="173"/>
     </row>
     <row r="95" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="173" t="s">
         <v>669</v>
       </c>
-      <c r="B95" s="60"/>
+      <c r="B95" s="173" t="s">
+        <v>1168</v>
+      </c>
       <c r="C95" s="173" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="D95" s="59"/>
-      <c r="E95" s="61"/>
+      <c r="E95" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F95" s="173"/>
     </row>
     <row r="96" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="60"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
+      <c r="B96" s="173" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C96" s="173" t="s">
+        <v>1172</v>
+      </c>
       <c r="D96" s="59"/>
-      <c r="E96" s="61"/>
+      <c r="E96" s="61" t="s">
+        <v>1147</v>
+      </c>
       <c r="F96" s="173"/>
     </row>
     <row r="97" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
